--- a/Tommy/text.xlsx
+++ b/Tommy/text.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tommy/Desktop/github/MobileRobotics/Tommy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{566325CD-CC03-8948-ABBE-80E833FE1B82}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5A1792E1-F151-6E4E-B06A-4098106A6D52}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-360" yWindow="1100" windowWidth="24940" windowHeight="14520"/>
+    <workbookView xWindow="5580" yWindow="1500" windowWidth="24940" windowHeight="14520"/>
   </bookViews>
   <sheets>
     <sheet name="text" sheetId="1" r:id="rId1"/>
@@ -976,8 +976,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2711"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A1203" workbookViewId="0">
+      <selection activeCell="B1601" sqref="B1601"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/Tommy/text.xlsx
+++ b/Tommy/text.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tommy/Desktop/github/MobileRobotics/Tommy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5A1792E1-F151-6E4E-B06A-4098106A6D52}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{DDEEF174-BB98-8D4C-AE52-9353F56D82BC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="1500" windowWidth="24940" windowHeight="14520"/>
+    <workbookView xWindow="660" yWindow="460" windowWidth="24940" windowHeight="14420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="text" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19">
     <font>
       <sz val="12"/>
@@ -973,14 +973,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2711"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1203" workbookViewId="0">
-      <selection activeCell="B1601" sqref="B1601"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="15.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1">
